--- a/medicine/Enfance/E._K._Johnston/E._K._Johnston.xlsx
+++ b/medicine/Enfance/E._K._Johnston/E._K._Johnston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emily Kate Johnston, dont les œuvres sont publiées sous le nom E. K. Johnston, née à Huron East, Ontario (en) en Ontario, est une romancière et nouvelliste canadienne de science-fiction et de fantasy.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,19 +553,126 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Star Wars
-Ahsoka, Pocket, coll. « Star Wars » no 171, 2020 ((en) Ahsoka, 2016), trad. Tristan Nivert et Thomas Renaud, 320 p.  (ISBN 978-2-266-30687-4)Réédition, Pocket Jeunesse, 2023, 312 p.  (ISBN 978-2-266-32469-4)
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ahsoka, Pocket, coll. « Star Wars » no 171, 2020 ((en) Ahsoka, 2016), trad. Tristan Nivert et Thomas Renaud, 320 p.  (ISBN 978-2-266-30687-4)Réédition, Pocket Jeunesse, 2023, 312 p.  (ISBN 978-2-266-32469-4)
 L'Ombre de la reine, Pocket, coll. « Star Wars » no 176, 2020 ((en) Queen's Shadow, 2019), trad. Sandy Julien, 336 p.  (ISBN 978-2-266-29948-0)
 Le Péril de la reine, Pocket, coll. « Star Wars » no 190, 2022 ((en) Queen's Peril, 2020), trad. Claire Nodot Kaufman, 288 p.  (ISBN 978-2-266-32496-0)
-L'Espoir de la reine, Pocket, coll. « Star Wars » no 196, 2023 ((en) Queen's Hope, 2022), trad. Claire Nodot Kaufman, 288 p.  (ISBN 978-2-266-33292-7)
-Série A Thousand Nights
-(en) A Thousand Nights, 2015
-(en) Spindle, 2016
-Série Dragon Slayer of Trondheim
-(en) The Story of Owen, 2014
-(en) Prairie Fire, 2015
-Romans indépendants
-(en) Kingdom of Sleep, 2016
+L'Espoir de la reine, Pocket, coll. « Star Wars » no 196, 2023 ((en) Queen's Hope, 2022), trad. Claire Nodot Kaufman, 288 p.  (ISBN 978-2-266-33292-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>E._K._Johnston</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/E._K._Johnston</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série A Thousand Nights</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) A Thousand Nights, 2015
+(en) Spindle, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>E._K._Johnston</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/E._K._Johnston</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Dragon Slayer of Trondheim</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Story of Owen, 2014
+(en) Prairie Fire, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>E._K._Johnston</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/E._K._Johnston</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Kingdom of Sleep, 2016
 (en) That Inevitable Victorian Thing, 2017
 (en) The Afterward, 2019
 (en) Aetherbound, 2021</t>
